--- a/SprayProcessSystem.UI/Configs/PLC_Config.xlsx
+++ b/SprayProcessSystem.UI/Configs/PLC_Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18029" windowHeight="10677"/>
+    <workbookView windowWidth="18357" windowHeight="10068"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -257,7 +257,7 @@
     <t>陶化pH值</t>
   </si>
   <si>
-    <t>M1014</t>
+    <t>M1016</t>
   </si>
   <si>
     <t>陶化喷淋泵过载报警</t>
@@ -1904,8 +1904,8 @@
   <sheetPr/>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.6" outlineLevelCol="5"/>

--- a/SprayProcessSystem.UI/Configs/PLC_Config.xlsx
+++ b/SprayProcessSystem.UI/Configs/PLC_Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18357" windowHeight="10068"/>
+    <workbookView windowWidth="18989" windowHeight="11719"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -281,7 +281,7 @@
     <t>精洗喷淋泵压力值</t>
   </si>
   <si>
-    <t>M1018</t>
+    <t>M1020</t>
   </si>
   <si>
     <t>精洗喷淋泵过载报警</t>
@@ -311,7 +311,7 @@
     <t>水分炉测量温度</t>
   </si>
   <si>
-    <t>M1022</t>
+    <t>M1024</t>
   </si>
   <si>
     <t>水分炉温度报警</t>
@@ -359,7 +359,7 @@
     <t>固化炉测量温度</t>
   </si>
   <si>
-    <t>M1026</t>
+    <t>M1028</t>
   </si>
   <si>
     <t>固化炉温度报警</t>
@@ -1904,8 +1904,8 @@
   <sheetPr/>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.6" outlineLevelCol="5"/>
